--- a/aborted_tasks.xlsx
+++ b/aborted_tasks.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>00:41:40</t>
+          <t>06:39:59</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,19 +483,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-05-30 07:46:51</t>
+          <t>2024-06-26 07:46:52</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Татэнергосбыт</t>
+          <t>GPON Подключение_сервис</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>00:42:54</t>
+          <t>06:51:13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -505,19 +505,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-05-30 07:45:37</t>
+          <t>2024-06-26 07:35:38</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GPON Подключение_сервис</t>
+          <t>И.В. Домофония</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>00:52:53</t>
+          <t>06:51:21</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -527,19 +527,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-05-30 07:35:38</t>
+          <t>2024-06-26 07:35:30</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>И.В. Домофония</t>
+          <t>qvd</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>00:53:01</t>
+          <t>07:02:18</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -549,19 +549,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-05-30 07:35:30</t>
+          <t>2024-06-26 07:24:33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>qvd</t>
+          <t>Проникновение GPON по каналам продаж</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01:02:44</t>
+          <t>07:11:42</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -571,19 +571,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-05-30 07:25:47</t>
+          <t>2024-06-26 07:15:09</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Проф. наряды сервис</t>
+          <t>05. Сервис+</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01:07:54</t>
+          <t>07:15:37</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -593,19 +593,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-05-30 07:20:37</t>
+          <t>2024-06-26 07:11:14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Проникновение GPON по каналам продаж</t>
+          <t>Динамика по принятым сотрудникам</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01:13:22</t>
+          <t>07:16:02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -615,19 +615,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-05-30 07:15:09</t>
+          <t>2024-06-26 07:10:49</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Выгрузка для премии +</t>
+          <t>Штат БКС (полная  информация)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01:15:01</t>
+          <t>07:18:38</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-05-30 07:13:30</t>
+          <t>2024-06-26 07:08:13</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Логгирование кассового модуля</t>
+          <t>03. Телемаркетинг</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01:17:41</t>
+          <t>07:23:47</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -659,19 +659,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-05-30 07:10:50</t>
+          <t>2024-06-26 07:03:05</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Динамика по принятым сотрудникам</t>
+          <t>Логгирование кассового модуля</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01:17:42</t>
+          <t>07:26:01</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -681,19 +681,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-05-30 07:10:49</t>
+          <t>2024-06-26 07:00:50</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>основные KPI_TMT</t>
+          <t>Работа сети связи v2.0 - для доклада с профилем повреждения (12 мес.)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01:18:28</t>
+          <t>07:26:08</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -703,19 +703,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-05-30 07:10:04</t>
+          <t>2024-06-26 07:00:44</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Штат БКС (полная  информация)</t>
+          <t>Загрузка тестовой базы ОТРС</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01:20:18</t>
+          <t>07:36:22</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -725,19 +725,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-05-30 07:08:13</t>
+          <t>2024-06-26 06:50:29</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Работа сети связи v2.0 - для доклада с профилем повреждения (12 мес.)</t>
+          <t>QVD_TREPORT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01:22:47</t>
+          <t>07:37:02</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -747,19 +747,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-05-30 07:05:44</t>
+          <t>2024-06-26 06:49:49</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Склад -количество номенклатур в папках</t>
+          <t>Обработчик статистики LTE (час)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01:23:21</t>
+          <t>07:45:50</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -769,19 +769,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-05-30 07:05:10</t>
+          <t>2024-06-26 06:41:02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>03. Телемаркетинг</t>
+          <t>Сервера Axxon&amp;Flussonic</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01:25:27</t>
+          <t>07:46:35</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -791,19 +791,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-05-30 07:03:05</t>
+          <t>2024-06-26 06:40:17</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Мониторинг оттока(1)</t>
+          <t>Мониторинг оттока</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01:27:14</t>
+          <t>07:46:49</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -813,19 +813,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-05-30 07:01:17</t>
+          <t>2024-06-26 06:40:03</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Мониторинг оттока</t>
+          <t>Выработка БКС</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01:27:27</t>
+          <t>07:46:59</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -835,19 +835,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-05-30 07:01:04</t>
+          <t>2024-06-26 06:39:52</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Эксплуатация СКК 2023</t>
+          <t>qvd_FTP_transfer</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01:27:39</t>
+          <t>07:48:11</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -857,19 +857,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-05-30 07:00:52</t>
+          <t>2024-06-26 06:38:40</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>!Обращения клиентов в КЦ - OTRS</t>
+          <t>16. Отток GPON</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01:28:06</t>
+          <t>07:53:18</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -879,19 +879,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-05-30 07:00:26</t>
+          <t>2024-06-26 06:33:33</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Сервисный центр 2023(1)</t>
+          <t>Заполнение Axapta (ООО ТМТ)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01:28:29</t>
+          <t>08:02:08</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -901,19 +901,19 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-05-30 07:00:03</t>
+          <t>2024-06-26 06:24:44</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Коммутаторы</t>
+          <t>Участки ГСА для координации</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01:37:28</t>
+          <t>08:05:01</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -923,19 +923,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-05-30 06:51:03</t>
+          <t>2024-06-26 06:21:50</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01. БКС - наряды  невыполненные</t>
+          <t>z. Новостройки</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01:37:40</t>
+          <t>08:05:29</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -945,19 +945,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-05-30 06:50:51</t>
+          <t>2024-06-26 06:21:22</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Загрузка тестовой базы ОТРС</t>
+          <t>13. Штат B2C</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01:38:02</t>
+          <t>08:11:32</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -967,19 +967,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-05-30 06:50:29</t>
+          <t>2024-06-26 06:15:20</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>QVD_TREPORT</t>
+          <t>LTE_updated_version</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01:38:42</t>
+          <t>08:14:03</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-05-30 06:49:49</t>
+          <t>2024-06-26 06:12:49</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Сервера Axxon&amp;Flussonic</t>
+          <t>06. Новостройки</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01:42:14</t>
+          <t>08:21:11</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1011,19 +1011,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-05-30 06:46:17</t>
+          <t>2024-06-26 06:05:40</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Обработчик статистики LTE (час)</t>
+          <t>НВ-Сервис(тест)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01:47:30</t>
+          <t>08:22:28</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1033,19 +1033,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-05-30 06:41:02</t>
+          <t>2024-06-26 06:04:24</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Выработка БКС</t>
+          <t>Обзвон абонентов в конкурентной зоне</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01:48:39</t>
+          <t>08:24:37</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1055,19 +1055,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-05-30 06:39:52</t>
+          <t>2024-06-26 06:02:14</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LTE_updated_version</t>
+          <t>QVD_DOPINFO_THISTORYCONNECTION</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01:50:38</t>
+          <t>08:27:16</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1077,19 +1077,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-05-30 06:37:53</t>
+          <t>2024-06-26 05:59:35</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>16. Отток GPON</t>
+          <t>Выгрузка для премии</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01:54:57</t>
+          <t>08:27:24</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1099,19 +1099,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-05-30 06:33:34</t>
+          <t>2024-06-26 05:59:27</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Заполнение Axapta (ООО ТМТ)</t>
+          <t>09.1 Заявки без услуг (Поток)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>02:05:46</t>
+          <t>08:29:19</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1121,19 +1121,19 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-05-30 06:22:46</t>
+          <t>2024-06-26 05:57:32</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Участки ГСА для координации</t>
+          <t>IP-домофония. Выезды</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>02:06:41</t>
+          <t>08:33:41</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1143,19 +1143,19 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-05-30 06:21:50</t>
+          <t>2024-06-26 05:53:11</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>z. Новостройки</t>
+          <t>Переданные наряды в смежные подразделения</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>02:07:10</t>
+          <t>08:33:54</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1165,19 +1165,19 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-05-30 06:21:21</t>
+          <t>2024-06-26 05:52:57</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Переданные наряды в смежные  (добавлены переданные на БКС)</t>
+          <t>Повторные повреждения</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>02:17:58</t>
+          <t>08:34:47</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1187,19 +1187,19 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-05-30 06:10:33</t>
+          <t>2024-06-26 05:52:05</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>МегаОТИ v.2</t>
+          <t>QVD_Charge_by_date_All</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>02:17:59</t>
+          <t>08:35:55</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1209,19 +1209,19 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-05-30 06:10:32</t>
+          <t>2024-06-26 05:50:56</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>05. Сервис+</t>
+          <t>new_otrs_extractor_l1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>02:22:17</t>
+          <t>08:36:46</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1231,19 +1231,19 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-05-30 06:06:14</t>
+          <t>2024-06-26 05:50:06</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>06. Новостройки</t>
+          <t>Обзвон</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>02:22:48</t>
+          <t>08:52:07</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1253,19 +1253,19 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-05-30 06:05:44</t>
+          <t>2024-06-26 05:34:44</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>НВ-Сервис(тест)</t>
+          <t>4. QVD_TEMP_M2000</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>02:24:08</t>
+          <t>08:55:45</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1275,19 +1275,19 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-05-30 06:04:24</t>
+          <t>2024-06-26 05:31:07</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Обзвон абонентов в конкурентной зоне</t>
+          <t>MSC (голосовое ядро)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>02:26:17</t>
+          <t>08:57:44</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1297,19 +1297,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-05-30 06:02:14</t>
+          <t>2024-06-26 05:29:07</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>QVD_DOPINFO_THISTORYCONNECTION</t>
+          <t>QVD_SERVICES_ABON</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>02:28:43</t>
+          <t>09:10:01</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1319,19 +1319,19 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-05-30 05:59:48</t>
+          <t>2024-06-26 05:16:50</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Выгрузка для премии</t>
+          <t>Обещанные платежи ТТК 2023(1)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>02:29:04</t>
+          <t>09:11:04</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-05-30 05:59:27</t>
+          <t>2024-06-26 05:15:47</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>09.1 Заявки без услуг (Поток)</t>
+          <t>QVD_RM_HOUSE_EQUIP(NO DOMOFON)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>02:30:59</t>
+          <t>09:12:27</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1363,19 +1363,19 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-05-30 05:57:32</t>
+          <t>2024-06-26 05:14:25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>07. Движение численности БКС</t>
+          <t>1.5. ОРП</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>02:31:46</t>
+          <t>09:12:28</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1385,19 +1385,19 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-05-30 05:56:45</t>
+          <t>2024-06-26 05:14:24</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Спецодежда -в2</t>
+          <t>аTSERVICEABON</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>02:34:02</t>
+          <t>09:15:01</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1407,19 +1407,19 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-05-30 05:54:29</t>
+          <t>2024-06-26 05:11:50</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>IP-домофония. Выезды</t>
+          <t>Измерения сети</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>02:35:21</t>
+          <t>09:19:25</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1429,19 +1429,19 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-05-30 05:53:10</t>
+          <t>2024-06-26 05:07:26</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Переданные наряды в смежные подразделения</t>
+          <t>06. ГРАС - Адресатор</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>02:35:33</t>
+          <t>10:00:25</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1451,19 +1451,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-05-30 05:52:58</t>
+          <t>2024-06-26 04:26:26</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Повторные повреждения</t>
+          <t>04. Отток МКД</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>02:36:28</t>
+          <t>10:05:10</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1473,19 +1473,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-05-30 05:52:03</t>
+          <t>2024-06-26 04:21:42</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>QVD_Charge_by_date_All</t>
+          <t>24. Незаведенные продажи Дилеры</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>02:37:50</t>
+          <t>10:13:56</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1495,19 +1495,19 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-05-30 05:50:42</t>
+          <t>2024-06-26 04:12:55</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>new_otrs_extractor_l1</t>
+          <t>ДЗ_автоинформирование IVR</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>02:38:26</t>
+          <t>10:15:14</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1517,19 +1517,19 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-05-30 05:50:06</t>
+          <t>2024-06-26 04:11:38</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Обзвон</t>
+          <t>QVD_Начисления</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>02:53:47</t>
+          <t>10:16:15</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1539,19 +1539,19 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-05-30 05:34:44</t>
+          <t>2024-06-26 04:10:37</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MSC (голосовое ядро)</t>
+          <t>Динамика по работающим сотрудникам</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>02:59:24</t>
+          <t>10:21:52</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1561,19 +1561,19 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-05-30 05:29:07</t>
+          <t>2024-06-26 04:04:59</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>QVD_SERVICES_ABON</t>
+          <t>ТЕСТ_Участки ГСА</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>03:11:41</t>
+          <t>10:22:41</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1583,19 +1583,19 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-05-30 05:16:50</t>
+          <t>2024-06-26 04:04:10</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Обещанные платежи ТТК 2023(1)</t>
+          <t>Первичные наряды - назначения</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>03:12:44</t>
+          <t>10:39:56</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1605,19 +1605,19 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-05-30 05:15:47</t>
+          <t>2024-06-26 03:46:55</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1.5. ОРП</t>
+          <t>Активная база</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>03:14:08</t>
+          <t>14:16:24</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1627,19 +1627,19 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-05-30 05:14:23</t>
+          <t>2024-06-26 00:10:28</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>QVD_NARYADI</t>
+          <t>auto_qvd_cdr_2024</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>03:16:00</t>
+          <t>15:16:03</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1649,19 +1649,19 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-05-30 05:12:31</t>
+          <t>2024-06-25 23:10:49</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TSERVICEABON</t>
+          <t>auto_qvd_cause</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>03:16:41</t>
+          <t>15:22:58</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1671,183 +1671,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-05-30 05:11:50</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>04. Отток МКД</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>04:06:48</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Aborted</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2024-05-30 04:21:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>ОВА Расходы по авансовым отчетам</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>04:22:13</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Aborted</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2024-05-30 04:06:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>ТЕСТ_Участки ГСА</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>04:24:21</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Aborted</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>2024-05-30 04:04:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Динамика по работающим сотрудникам</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>04:26:16</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Aborted</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>2024-05-30 04:02:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Первичные наряды - назначения</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>04:41:23</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Aborted</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2024-05-30 03:47:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>QVD_Выгрузка для премии_3</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>04:57:37</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Aborted</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2024-05-30 03:30:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Активная база</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>08:18:04</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Aborted</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2024-05-30 00:10:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>auto_qvd_cdr_2024</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>09:17:49</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Aborted</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>2024-05-29 23:10:42</t>
+          <t>2024-06-25 23:03:53</t>
         </is>
       </c>
     </row>
